--- a/Table/Table_xls/f福利奖励/手机绑定礼包.xlsx
+++ b/Table/Table_xls/f福利奖励/手机绑定礼包.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>ID</t>
   </si>
@@ -73,6 +73,60 @@
   </si>
   <si>
     <t>角色9道具数量</t>
+  </si>
+  <si>
+    <t>角色10道具ID</t>
+  </si>
+  <si>
+    <t>角色10道具数量</t>
+  </si>
+  <si>
+    <t>角色11道具ID</t>
+  </si>
+  <si>
+    <t>角色11道具数量</t>
+  </si>
+  <si>
+    <t>角色12道具ID</t>
+  </si>
+  <si>
+    <t>角色12道具数量</t>
+  </si>
+  <si>
+    <t>角色13道具ID</t>
+  </si>
+  <si>
+    <t>角色13道具数量</t>
+  </si>
+  <si>
+    <t>角色14道具ID</t>
+  </si>
+  <si>
+    <t>角色14道具数量</t>
+  </si>
+  <si>
+    <t>角色15道具ID</t>
+  </si>
+  <si>
+    <t>角色15道具数量</t>
+  </si>
+  <si>
+    <t>角色16道具ID</t>
+  </si>
+  <si>
+    <t>角色16道具数量</t>
+  </si>
+  <si>
+    <t>角色17道具ID</t>
+  </si>
+  <si>
+    <t>角色17道具数量</t>
+  </si>
+  <si>
+    <t>角色18道具ID</t>
+  </si>
+  <si>
+    <t>角色18道具数量</t>
   </si>
 </sst>
 </file>
@@ -80,9 +134,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -94,7 +148,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,26 +170,58 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -143,18 +236,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,32 +252,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,38 +283,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,19 +306,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,163 +468,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,6 +497,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,81 +593,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,133 +617,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -749,12 +803,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1080,16 +1129,17 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1097,7 +1147,7 @@
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,8 +1205,62 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:37">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1212,6 +1316,60 @@
         <v>340078</v>
       </c>
       <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>340078</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>340078</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>340078</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>340078</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>340078</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>340078</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>340078</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>340078</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>340078</v>
+      </c>
+      <c r="AK2">
         <v>1</v>
       </c>
     </row>
@@ -1223,7 +1381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1240,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/Table/Table_xls/f福利奖励/手机绑定礼包.xlsx
+++ b/Table/Table_xls/f福利奖励/手机绑定礼包.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28245" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -134,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -146,16 +146,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,20 +183,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -191,54 +227,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,13 +242,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -266,32 +258,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,26 +500,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,17 +554,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,35 +583,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,133 +617,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -804,6 +804,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1129,20 +1134,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:AK2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
@@ -1370,6 +1374,119 @@
         <v>340078</v>
       </c>
       <c r="AK2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>340078</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>340078</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>340078</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>340078</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>340078</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>340078</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>340078</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>340078</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>340078</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>340078</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>340078</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>340078</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>340078</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>340078</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>340078</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>340078</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>340078</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>340078</v>
+      </c>
+      <c r="AK3">
         <v>1</v>
       </c>
     </row>
@@ -1381,7 +1498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1398,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
